--- a/reports/resnet18_23_no_MMTM/prediction/5/probability_test_5.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/5/probability_test_5.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3774208128452301</v>
+        <v>0.7215971946716309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6225792169570923</v>
+        <v>0.2784028053283691</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2997589707374573</v>
+        <v>0.6476194858551025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7002409696578979</v>
+        <v>0.3523805141448975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.389578640460968</v>
+        <v>0.7985185384750366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6104214191436768</v>
+        <v>0.2014814466238022</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2440479397773743</v>
+        <v>0.5184850096702576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7559520602226257</v>
+        <v>0.4815149903297424</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2031953185796738</v>
+        <v>0.592157781124115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.796804666519165</v>
+        <v>0.407842218875885</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4534706473350525</v>
+        <v>0.8000278472900391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5465293526649475</v>
+        <v>0.1999721229076385</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1876078248023987</v>
+        <v>0.4785440862178802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8123921155929565</v>
+        <v>0.5214558839797974</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0978720411658287</v>
+        <v>0.0701405256986618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9021279811859131</v>
+        <v>0.9298593997955322</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1024574190378189</v>
+        <v>0.1584347486495972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8975425958633423</v>
+        <v>0.8415652513504028</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2069317102432251</v>
+        <v>0.5272352695465088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7930682897567749</v>
+        <v>0.4727647006511688</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1885292083024979</v>
+        <v>0.3782642185688019</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8114708065986633</v>
+        <v>0.6217357516288757</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1059728190302849</v>
+        <v>0.09724448621273041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8940272331237793</v>
+        <v>0.9027554988861084</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1964595913887024</v>
+        <v>0.3835326433181763</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8035403490066528</v>
+        <v>0.6164674162864685</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1145511418581009</v>
+        <v>0.1971490979194641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8854488134384155</v>
+        <v>0.8028509020805359</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1300639510154724</v>
+        <v>0.3122334778308868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8699361085891724</v>
+        <v>0.6877665519714355</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.111380510032177</v>
+        <v>0.185998260974884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8886195421218872</v>
+        <v>0.8140016794204712</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08409222215414047</v>
+        <v>0.04112280532717705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9159078001976013</v>
+        <v>0.9588772058486938</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4585700631141663</v>
+        <v>0.6734839677810669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5414299964904785</v>
+        <v>0.3265160620212555</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1276459991931915</v>
+        <v>0.1293863505125046</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8723540306091309</v>
+        <v>0.870613694190979</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09854751825332642</v>
+        <v>0.1233125627040863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9014525413513184</v>
+        <v>0.8766874074935913</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
